--- a/project/kepegawaian/jobdesk.xlsx
+++ b/project/kepegawaian/jobdesk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.253.77\@kepegawaian\MB.LINDA\BAGAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Larashit\ermsimrsmu\project\kepegawaian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE5B34C-A0DE-41F7-9622-29EA50DF1141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03818369-A01B-48A6-A7BE-572D7BB195DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{60C3AB20-5C52-494A-B492-D5487CCDEFB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60C3AB20-5C52-494A-B492-D5487CCDEFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -579,53 +579,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,19 +628,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,12 +655,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,7 +668,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,6 +708,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351519</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>56696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294823</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F314D19-D13A-83C0-3243-04D68C6B2A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277680" y="249464"/>
+          <a:ext cx="8821964" cy="4470893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294823</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29371FD5-E3DA-717E-A118-A4AB36681ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8243662" y="4932590"/>
+          <a:ext cx="8855982" cy="3720691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294823</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170089</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BCEF24-891C-99D5-2DED-5A4B8C376488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220984" y="8742591"/>
+          <a:ext cx="6304641" cy="4198904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,31 +1146,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8996C351-2A4A-4FED-A3EB-B69C3D22B746}">
   <dimension ref="A2:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="47"/>
+    <col min="1" max="1" width="9.140625" style="37"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1073,7 +1181,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1084,7 +1192,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1095,7 +1203,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1106,10 +1214,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1117,7 +1225,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1128,7 +1236,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1139,10 +1247,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="25" t="s">
         <v>119</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1150,10 +1258,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1161,7 +1269,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1172,10 +1280,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1183,7 +1291,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="35">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1194,7 +1302,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="35">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1205,7 +1313,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="35">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1216,7 +1324,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="35">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1227,7 +1335,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="35">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1237,19 +1345,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="42">
         <v>17</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="35">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1260,7 +1368,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="35">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1271,7 +1379,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="35">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1282,7 +1390,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="35">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1293,7 +1401,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="35">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1304,7 +1412,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="35">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1314,22 +1422,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="42">
         <v>24</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="21" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1337,7 +1445,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="35">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1348,10 +1456,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
+      <c r="A29" s="35">
         <v>27</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -1359,10 +1467,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
+      <c r="A30" s="35">
         <v>28</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1370,7 +1478,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
+      <c r="A31" s="35">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1380,30 +1488,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
         <v>30</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="35">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1414,7 +1522,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="35">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1425,7 +1533,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="35">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1436,10 +1544,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="45">
+      <c r="A37" s="35">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1447,292 +1555,976 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="A38" s="35">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="45">
+      <c r="A39" s="35">
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="45">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
+      <c r="A41" s="35">
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="45">
+      <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="45">
+      <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="45">
+      <c r="A44" s="35">
         <v>42</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="45">
+      <c r="A45" s="35">
         <v>43</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="35">
         <v>44</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="A47" s="35">
         <v>45</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="45">
+      <c r="A48" s="35">
         <v>46</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="45">
+      <c r="A49" s="35">
         <v>47</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+      <c r="A50" s="35">
         <v>48</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="45">
+      <c r="A51" s="35">
         <v>49</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="45">
+      <c r="A52" s="35">
         <v>50</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="45">
+      <c r="A53" s="35">
         <v>51</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="35">
         <v>52</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="45">
+      <c r="A55" s="35">
         <v>53</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="45">
+      <c r="A56" s="35">
         <v>54</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="45">
+      <c r="A57" s="35">
         <v>55</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="45">
+      <c r="A58" s="35">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="45">
+      <c r="A59" s="35">
         <v>57</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="45">
+      <c r="A60" s="35">
         <v>58</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="45">
+      <c r="A61" s="35">
         <v>59</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="45">
+      <c r="A62" s="35">
         <v>60</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="45">
+      <c r="A63" s="35">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="20" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5FE6C16-93BE-4AD1-B10A-9E2EC059213E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9A951C44-2374-4729-AF93-0C63FAAD5103}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5C8D2D2B-E65E-4ACC-8919-43B98B788200}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42D3F8B2-32AF-4C30-A230-B71D8B974FEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED7F4055-07DA-45DE-90E7-6B7CD870CB38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F59D5FE-3D18-4A3A-BBCA-9B6595564A2D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{030C71A4-2FFA-4C96-90FB-68A085E868AA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FA040C16-1F40-4119-99B6-6CAEB334AF3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA92DE44-BC3A-4F58-92FE-252B4401F9D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="dataBar" priority="68">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7929EEF7-1D9B-4B60-8EB6-B9773B3CCEE4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{352B1947-06B5-4758-B60E-8EBB02A24261}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC614B05-B856-40AD-AC56-79F95DE833FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9111E7F1-6C72-4187-8D61-5FD74068BEA3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F1D4C69-F4FE-4FA4-85AD-7FE359CE969D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="dataBar" priority="63">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42202744-5F18-4C44-87E7-5274E6D5FDED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="dataBar" priority="62">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A36CE4CE-845E-45B7-8082-332870E13219}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A14F1D65-E7F5-41D5-B06D-C9C44A107A50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D85997F7-2140-4545-8E1E-D524DC9C948E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31 B33">
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{462F8886-B2C1-4998-AF07-714B4CBC27BB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FADFD7A3-A45C-4586-B78D-06E7601C2DBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B39">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5E69DA57-4432-46D1-BE8F-621E224A270B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="dataBar" priority="56">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DE37110-B06F-4332-A9D6-F7C318710EA4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B42">
+    <cfRule type="dataBar" priority="160">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F6ECE435-B8D8-4B50-B11F-279D5F54AC9A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9513934-B6B6-42E9-B08C-2987A9830A16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{760D77EE-FE5C-4E8B-AB5F-7F2936821529}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96BA6991-21EE-4F7F-BBE9-4027FA09A060}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7225E33-BA31-4658-83B9-3C30FD675FF1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="dataBar" priority="150">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C9833A1-C6D0-4819-B73B-2A130F603EF0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{70C88CF4-5AFA-4FE3-B0D0-D63C4DBD0AAA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A53E3D16-CFDC-424F-80AF-A6A469185927}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C2F1D192-1B26-4B05-AA38-FC80B0EEB5F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E623CF3B-5CD7-4099-907C-5893D3FDDBC9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="dataBar" priority="151">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27606D27-5F93-4140-8C05-D50E810527B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D9B6D2B-0E8B-4624-83C8-E05B7A5A6843}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3FB294F5-5C89-4F22-BC65-EB32F9448192}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BFF7D469-0EE1-4468-BFBC-851E2D5352ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2280CB8A-1073-4EF9-90E4-E0841D3BC229}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD63FDB4-C73C-43E7-9815-BD643711AF49}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2A3DCA86-F5EF-4352-99DA-617C547E1296}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="dataBar" priority="154">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{218D3F68-1E1E-4FB9-8EB2-F44E06F888B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17E665FB-0C4D-4AD1-95C6-0B561AE0EE13}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E990BAD5-DC0D-413B-BA1C-E0E75222E74C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{531E3861-CC6E-4168-A22A-2BB377809114}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C3327289-6F60-4085-B0B0-D9F0E7ED339D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9120971A-862E-447F-BDEA-5C5D8EE00F5E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FA75732A-26DD-4388-B035-F90822743EED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F26AC97-ADE1-4355-9A89-17D7BB30E1E5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="dataBar" priority="158">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF05BEA0-FFAC-4134-94DF-302FD6B79251}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="dataBar" priority="139">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8094B040-6AA6-4335-8897-AEDAD1175652}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="dataBar" priority="137">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B6C787EB-35D7-489D-BBA0-5F8C9AE98944}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
     <cfRule type="dataBar" priority="135">
       <dataBar>
@@ -1760,8 +2552,6 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
     <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="min"/>
@@ -1771,20 +2561,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A8A07CE6-2E75-4A7C-A591-F6E4A4850D79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="dataBar" priority="137">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6C787EB-35D7-489D-BBA0-5F8C9AE98944}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1803,16 +2579,58 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="dataBar" priority="139">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8094B040-6AA6-4335-8897-AEDAD1175652}</x14:id>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="dataBar" priority="127">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{653F8536-A20E-4C26-85F3-93155C098B02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="dataBar" priority="131">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF02B7DC-65B2-4D05-A20B-E13FFD1FA8D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="dataBar" priority="123">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5E449B01-7876-4623-835B-0566DBCC2BB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="dataBar" priority="129">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5B5A3D4-65FA-435A-9480-0FBD99A85FC7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1845,62 +2663,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="dataBar" priority="127">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{653F8536-A20E-4C26-85F3-93155C098B02}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="dataBar" priority="129">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C5B5A3D4-65FA-435A-9480-0FBD99A85FC7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="dataBar" priority="131">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF02B7DC-65B2-4D05-A20B-E13FFD1FA8D0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="dataBar" priority="123">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E449B01-7876-4623-835B-0566DBCC2BB1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C31 C33">
     <cfRule type="dataBar" priority="122">
       <dataBar>
@@ -1956,8 +2718,6 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
     <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
@@ -1999,6 +2759,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="dataBar" priority="148">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6C92C96-58FD-4743-8C4F-6095FEDC3925}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C45">
     <cfRule type="dataBar" priority="113">
       <dataBar>
@@ -2013,6 +2787,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="dataBar" priority="149">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA56FB6F-FB32-4CC2-817A-8A85166478A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C47">
     <cfRule type="dataBar" priority="109">
       <dataBar>
@@ -2026,8 +2814,6 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
     <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
@@ -2083,6 +2869,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="dataBar" priority="152">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A7D9DC87-AA25-4E5E-BA64-D56AFD97B32C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C53">
     <cfRule type="dataBar" priority="98">
       <dataBar>
@@ -2096,8 +2896,6 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
     <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
@@ -2107,20 +2905,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E2A93912-05B8-4498-B135-629A2CBE7BD6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="dataBar" priority="96">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2C66F6A1-C5F8-44A2-A4A8-400DEB53AEEC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2138,6 +2922,18 @@
         </ext>
       </extLst>
     </cfRule>
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C66F6A1-C5F8-44A2-A4A8-400DEB53AEEC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
     <cfRule type="dataBar" priority="92">
@@ -2153,6 +2949,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="dataBar" priority="153">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B33851DA-D6D5-4FBE-9680-AD55F33352A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C57">
     <cfRule type="dataBar" priority="89">
       <dataBar>
@@ -2180,8 +2990,6 @@
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
     <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
@@ -2209,692 +3017,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="dataBar" priority="66">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{352B1947-06B5-4758-B60E-8EBB02A24261}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="dataBar" priority="65">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA92DE44-BC3A-4F58-92FE-252B4401F9D4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="dataBar" priority="64">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9111E7F1-6C72-4187-8D61-5FD74068BEA3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="dataBar" priority="67">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FC614B05-B856-40AD-AC56-79F95DE833FB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="dataBar" priority="68">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7929EEF7-1D9B-4B60-8EB6-B9773B3CCEE4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="dataBar" priority="69">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4F1D4C69-F4FE-4FA4-85AD-7FE359CE969D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="dataBar" priority="63">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42202744-5F18-4C44-87E7-5274E6D5FDED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="dataBar" priority="60">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D85997F7-2140-4545-8E1E-D524DC9C948E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="dataBar" priority="61">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A14F1D65-E7F5-41D5-B06D-C9C44A107A50}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="dataBar" priority="62">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A36CE4CE-845E-45B7-8082-332870E13219}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31 B33">
-    <cfRule type="dataBar" priority="59">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{462F8886-B2C1-4998-AF07-714B4CBC27BB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="dataBar" priority="58">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FADFD7A3-A45C-4586-B78D-06E7601C2DBB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B39">
-    <cfRule type="dataBar" priority="57">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E69DA57-4432-46D1-BE8F-621E224A270B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="dataBar" priority="56">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6DE37110-B06F-4332-A9D6-F7C318710EA4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="dataBar" priority="54">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D9513934-B6B6-42E9-B08C-2987A9830A16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="dataBar" priority="50">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{760D77EE-FE5C-4E8B-AB5F-7F2936821529}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96BA6991-21EE-4F7F-BBE9-4027FA09A060}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="dataBar" priority="49">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D7225E33-BA31-4658-83B9-3C30FD675FF1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70C88CF4-5AFA-4FE3-B0D0-D63C4DBD0AAA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A53E3D16-CFDC-424F-80AF-A6A469185927}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="dataBar" priority="41">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C2F1D192-1B26-4B05-AA38-FC80B0EEB5F4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E623CF3B-5CD7-4099-907C-5893D3FDDBC9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="dataBar" priority="37">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3FB294F5-5C89-4F22-BC65-EB32F9448192}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="dataBar" priority="38">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D9B6D2B-0E8B-4624-83C8-E05B7A5A6843}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BFF7D469-0EE1-4468-BFBC-851E2D5352ED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="dataBar" priority="32">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2280CB8A-1073-4EF9-90E4-E0841D3BC229}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD63FDB4-C73C-43E7-9815-BD643711AF49}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2A3DCA86-F5EF-4352-99DA-617C547E1296}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17E665FB-0C4D-4AD1-95C6-0B561AE0EE13}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C3327289-6F60-4085-B0B0-D9F0E7ED339D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{531E3861-CC6E-4168-A22A-2BB377809114}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E990BAD5-DC0D-413B-BA1C-E0E75222E74C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9120971A-862E-447F-BDEA-5C5D8EE00F5E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9F26AC97-ADE1-4355-9A89-17D7BB30E1E5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA040C16-1F40-4119-99B6-6CAEB334AF3B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED7F4055-07DA-45DE-90E7-6B7CD870CB38}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A951C44-2374-4729-AF93-0C63FAAD5103}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5FE6C16-93BE-4AD1-B10A-9E2EC059213E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C8D2D2B-E65E-4ACC-8919-43B98B788200}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42D3F8B2-32AF-4C30-A230-B71D8B974FEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6F59D5FE-3D18-4A3A-BBCA-9B6595564A2D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{030C71A4-2FFA-4C96-90FB-68A085E868AA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="dataBar" priority="148">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C6C92C96-58FD-4743-8C4F-6095FEDC3925}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="dataBar" priority="149">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CA56FB6F-FB32-4CC2-817A-8A85166478A9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="dataBar" priority="150">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2C9833A1-C6D0-4819-B73B-2A130F603EF0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="dataBar" priority="151">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27606D27-5F93-4140-8C05-D50E810527B4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="dataBar" priority="152">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A7D9DC87-AA25-4E5E-BA64-D56AFD97B32C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="dataBar" priority="153">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B33851DA-D6D5-4FBE-9680-AD55F33352A0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="dataBar" priority="154">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{218D3F68-1E1E-4FB9-8EB2-F44E06F888B6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C60">
     <cfRule type="dataBar" priority="155">
       <dataBar>
@@ -2937,20 +3059,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="dataBar" priority="158">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BF05BEA0-FFAC-4134-94DF-302FD6B79251}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C63">
     <cfRule type="dataBar" priority="159">
       <dataBar>
@@ -2965,40 +3073,439 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA75732A-26DD-4388-B035-F90822743EED}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
-    <cfRule type="dataBar" priority="160">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F6ECE435-B8D8-4B50-B11F-279D5F54AC9A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5FE6C16-93BE-4AD1-B10A-9E2EC059213E}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9A951C44-2374-4729-AF93-0C63FAAD5103}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5C8D2D2B-E65E-4ACC-8919-43B98B788200}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42D3F8B2-32AF-4C30-A230-B71D8B974FEB}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED7F4055-07DA-45DE-90E7-6B7CD870CB38}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F59D5FE-3D18-4A3A-BBCA-9B6595564A2D}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{030C71A4-2FFA-4C96-90FB-68A085E868AA}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA040C16-1F40-4119-99B6-6CAEB334AF3B}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA92DE44-BC3A-4F58-92FE-252B4401F9D4}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7929EEF7-1D9B-4B60-8EB6-B9773B3CCEE4}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{352B1947-06B5-4758-B60E-8EBB02A24261}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC614B05-B856-40AD-AC56-79F95DE833FB}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9111E7F1-6C72-4187-8D61-5FD74068BEA3}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F1D4C69-F4FE-4FA4-85AD-7FE359CE969D}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42202744-5F18-4C44-87E7-5274E6D5FDED}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A36CE4CE-845E-45B7-8082-332870E13219}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A14F1D65-E7F5-41D5-B06D-C9C44A107A50}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D85997F7-2140-4545-8E1E-D524DC9C948E}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{462F8886-B2C1-4998-AF07-714B4CBC27BB}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B31 B33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FADFD7A3-A45C-4586-B78D-06E7601C2DBB}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5E69DA57-4432-46D1-BE8F-621E224A270B}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B38:B39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DE37110-B06F-4332-A9D6-F7C318710EA4}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F6ECE435-B8D8-4B50-B11F-279D5F54AC9A}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B41:B42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9513934-B6B6-42E9-B08C-2987A9830A16}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{760D77EE-FE5C-4E8B-AB5F-7F2936821529}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96BA6991-21EE-4F7F-BBE9-4027FA09A060}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{D7225E33-BA31-4658-83B9-3C30FD675FF1}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C9833A1-C6D0-4819-B73B-2A130F603EF0}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70C88CF4-5AFA-4FE3-B0D0-D63C4DBD0AAA}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A53E3D16-CFDC-424F-80AF-A6A469185927}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C2F1D192-1B26-4B05-AA38-FC80B0EEB5F4}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E623CF3B-5CD7-4099-907C-5893D3FDDBC9}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27606D27-5F93-4140-8C05-D50E810527B4}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D9B6D2B-0E8B-4624-83C8-E05B7A5A6843}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3FB294F5-5C89-4F22-BC65-EB32F9448192}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BFF7D469-0EE1-4468-BFBC-851E2D5352ED}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2280CB8A-1073-4EF9-90E4-E0841D3BC229}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD63FDB4-C73C-43E7-9815-BD643711AF49}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2A3DCA86-F5EF-4352-99DA-617C547E1296}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{218D3F68-1E1E-4FB9-8EB2-F44E06F888B6}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17E665FB-0C4D-4AD1-95C6-0B561AE0EE13}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E990BAD5-DC0D-413B-BA1C-E0E75222E74C}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{531E3861-CC6E-4168-A22A-2BB377809114}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C3327289-6F60-4085-B0B0-D9F0E7ED339D}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9120971A-862E-447F-BDEA-5C5D8EE00F5E}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FA75732A-26DD-4388-B035-F90822743EED}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F26AC97-ADE1-4355-9A89-17D7BB30E1E5}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF05BEA0-FFAC-4134-94DF-302FD6B79251}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8094B040-6AA6-4335-8897-AEDAD1175652}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B6C787EB-35D7-489D-BBA0-5F8C9AE98944}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2E9C160F-4473-489D-8F5F-453C93B23EC4}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3014,27 +3521,15 @@
               <x14:cfvo type="max"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A8A07CE6-2E75-4A7C-A591-F6E4A4850D79}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A8A07CE6-2E75-4A7C-A591-F6E4A4850D79}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6C787EB-35D7-489D-BBA0-5F8C9AE98944}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CA00529A-7CE1-4108-B7F6-9F3DBC5A9E89}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3044,13 +3539,40 @@
           <xm:sqref>C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8094B040-6AA6-4335-8897-AEDAD1175652}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C12</xm:sqref>
+          <x14:cfRule type="dataBar" id="{653F8536-A20E-4C26-85F3-93155C098B02}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF02B7DC-65B2-4D05-A20B-E13FFD1FA8D0}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5E449B01-7876-4623-835B-0566DBCC2BB1}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C5B5A3D4-65FA-435A-9480-0FBD99A85FC7}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A20D0045-7357-46EE-A94D-A1D98481C23E}">
@@ -3071,42 +3593,6 @@
           <xm:sqref>C29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{653F8536-A20E-4C26-85F3-93155C098B02}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C5B5A3D4-65FA-435A-9480-0FBD99A85FC7}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF02B7DC-65B2-4D05-A20B-E13FFD1FA8D0}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E449B01-7876-4623-835B-0566DBCC2BB1}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0B57E6D-08EC-4228-B7BC-7260CB982FBF}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3140,18 +3626,15 @@
               <x14:cfvo type="max"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{45572A9D-159D-4F0C-B7BC-4ABA831DA0BE}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45572A9D-159D-4F0C-B7BC-4ABA831DA0BE}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8466CA0E-7F00-4950-B340-0E628AADCD70}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3170,6 +3653,15 @@
           <xm:sqref>C43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6C92C96-58FD-4743-8C4F-6095FEDC3925}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E5DCEBF-8D7E-4E15-8454-F4155ED77B16}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3179,24 +3671,30 @@
           <xm:sqref>C45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA56FB6F-FB32-4CC2-817A-8A85166478A9}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3037B44B-AF5C-4BF0-A1DD-6AF4D4053F34}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{853F64A4-9558-4525-83FE-02B598558BDA}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{853F64A4-9558-4525-83FE-02B598558BDA}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AAAF36FB-D6B6-4877-87FC-125C7EDC2D68}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3224,24 +3722,36 @@
           <xm:sqref>C51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A7D9DC87-AA25-4E5E-BA64-D56AFD97B32C}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83D33C13-0A54-4245-AD8B-654E32F4FDB0}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E2A93912-05B8-4498-B135-629A2CBE7BD6}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2A93912-05B8-4498-B135-629A2CBE7BD6}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A1B7D6FC-1848-4C13-A7AA-18C352E818B9}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{2C66F6A1-C5F8-44A2-A4A8-400DEB53AEEC}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3251,15 +3761,6 @@
           <xm:sqref>C54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A1B7D6FC-1848-4C13-A7AA-18C352E818B9}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{618AD64D-1A12-4DF8-AC7E-E2BFD766797D}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3269,6 +3770,15 @@
           <xm:sqref>C55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B33851DA-D6D5-4FBE-9680-AD55F33352A0}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C56</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB78F8AB-C086-49F3-922B-C385418EBADC}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3284,18 +3794,15 @@
               <x14:cfvo type="max"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9753EC4A-2CF4-4404-A2BB-D2D5A55D2EAE}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9753EC4A-2CF4-4404-A2BB-D2D5A55D2EAE}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D67729A2-9E00-4F78-95D8-5BF70CD0D928}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3305,447 +3812,6 @@
           <xm:sqref>C59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{352B1947-06B5-4758-B60E-8EBB02A24261}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA92DE44-BC3A-4F58-92FE-252B4401F9D4}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9111E7F1-6C72-4187-8D61-5FD74068BEA3}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FC614B05-B856-40AD-AC56-79F95DE833FB}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7929EEF7-1D9B-4B60-8EB6-B9773B3CCEE4}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4F1D4C69-F4FE-4FA4-85AD-7FE359CE969D}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42202744-5F18-4C44-87E7-5274E6D5FDED}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D85997F7-2140-4545-8E1E-D524DC9C948E}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A14F1D65-E7F5-41D5-B06D-C9C44A107A50}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A36CE4CE-845E-45B7-8082-332870E13219}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{462F8886-B2C1-4998-AF07-714B4CBC27BB}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B31 B33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FADFD7A3-A45C-4586-B78D-06E7601C2DBB}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E69DA57-4432-46D1-BE8F-621E224A270B}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B38:B39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6DE37110-B06F-4332-A9D6-F7C318710EA4}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D9513934-B6B6-42E9-B08C-2987A9830A16}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{760D77EE-FE5C-4E8B-AB5F-7F2936821529}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96BA6991-21EE-4F7F-BBE9-4027FA09A060}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D7225E33-BA31-4658-83B9-3C30FD675FF1}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70C88CF4-5AFA-4FE3-B0D0-D63C4DBD0AAA}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A53E3D16-CFDC-424F-80AF-A6A469185927}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B47</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C2F1D192-1B26-4B05-AA38-FC80B0EEB5F4}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E623CF3B-5CD7-4099-907C-5893D3FDDBC9}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3FB294F5-5C89-4F22-BC65-EB32F9448192}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7D9B6D2B-0E8B-4624-83C8-E05B7A5A6843}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BFF7D469-0EE1-4468-BFBC-851E2D5352ED}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2280CB8A-1073-4EF9-90E4-E0841D3BC229}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD63FDB4-C73C-43E7-9815-BD643711AF49}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A3DCA86-F5EF-4352-99DA-617C547E1296}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17E665FB-0C4D-4AD1-95C6-0B561AE0EE13}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C3327289-6F60-4085-B0B0-D9F0E7ED339D}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{531E3861-CC6E-4168-A22A-2BB377809114}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E990BAD5-DC0D-413B-BA1C-E0E75222E74C}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9120971A-862E-447F-BDEA-5C5D8EE00F5E}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B59</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9F26AC97-ADE1-4355-9A89-17D7BB30E1E5}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA040C16-1F40-4119-99B6-6CAEB334AF3B}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED7F4055-07DA-45DE-90E7-6B7CD870CB38}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A951C44-2374-4729-AF93-0C63FAAD5103}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5FE6C16-93BE-4AD1-B10A-9E2EC059213E}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C8D2D2B-E65E-4ACC-8919-43B98B788200}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42D3F8B2-32AF-4C30-A230-B71D8B974FEB}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6F59D5FE-3D18-4A3A-BBCA-9B6595564A2D}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{030C71A4-2FFA-4C96-90FB-68A085E868AA}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C6C92C96-58FD-4743-8C4F-6095FEDC3925}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CA56FB6F-FB32-4CC2-817A-8A85166478A9}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2C9833A1-C6D0-4819-B73B-2A130F603EF0}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B46</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{27606D27-5F93-4140-8C05-D50E810527B4}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A7D9DC87-AA25-4E5E-BA64-D56AFD97B32C}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B33851DA-D6D5-4FBE-9680-AD55F33352A0}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{218D3F68-1E1E-4FB9-8EB2-F44E06F888B6}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B19C2AF9-FD19-4681-8073-42A50B3868FD}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3773,15 +3839,6 @@
           <xm:sqref>C62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BF05BEA0-FFAC-4134-94DF-302FD6B79251}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B62</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5465977F-89E9-4066-92BA-C8FE03798E84}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
@@ -3789,24 +3846,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA75732A-26DD-4388-B035-F90822743EED}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F6ECE435-B8D8-4B50-B11F-279D5F54AC9A}">
-            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B41:B42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
